--- a/NEW HR/BUELBO, MICHLE C..xlsx
+++ b/NEW HR/BUELBO, MICHLE C..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>11/5,19/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>01/27,28/2024</t>
   </si>
 </sst>
 </file>
@@ -569,6 +575,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -581,20 +596,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,7 +1056,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1099,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,7 +1163,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1223,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1289,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1352,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1450,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1509,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1574,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1617,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1692,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1878,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1944,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +2002,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2068,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2124,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2199,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2242,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2308,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2364,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2462,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2525,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2591,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2963,12 +2969,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,14 +3004,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3018,16 +3024,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>45019</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3040,16 +3046,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3075,18 +3081,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3133,7 +3139,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>9.9169999999999998</v>
+        <v>12.417</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3143,7 +3149,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>7.9169999999999998</v>
+        <v>8.4169999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3345,13 +3351,15 @@
         <v>45291</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
@@ -3359,8 +3367,8 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
-        <v>45322</v>
+      <c r="A20" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -3377,20 +3385,30 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H21" s="39"/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="39">
+        <v>2</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -3409,7 +3427,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3425,7 +3443,7 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -3617,7 +3635,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3633,7 +3651,7 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3825,7 +3843,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3841,7 +3859,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -4033,7 +4051,7 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -4049,7 +4067,7 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4241,7 +4259,7 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4257,7 +4275,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -5185,34 +5203,50 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
